--- a/leak_data.xlsx
+++ b/leak_data.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,7 +425,7 @@
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
     <col width="30" customWidth="1" min="7" max="7"/>
@@ -504,12 +504,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07/21/2021</t>
+          <t>08/20/2021</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10:16:11</t>
+          <t>13:52:10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PVS0311</t>
+          <t>288PVSTSTT6</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G2" t="n">
-        <v>15.03</v>
+        <v>17.42</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6.42</v>
+        <v>9.74</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -553,19 +553,19 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>288 TX6PVS0311_2021_07_21_101611.ini</t>
+          <t>288 pvststxtx6_2021_08_20_135210.ini</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07/21/2021</t>
+          <t>08/20/2021</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12:11:41</t>
+          <t>13:57:33</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PVS0313</t>
+          <t>288PVSTSTT6</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="G3" t="n">
-        <v>10.74</v>
+        <v>21.13</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8.09</v>
+        <v>13.09</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -609,19 +609,19 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>288 TX6PVS0313_2021_07_21_121141.ini</t>
+          <t>288 pvststxtx6_2021_08_20_135733.ini</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07/21/2021</t>
+          <t>08/02/2021</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11:21:04</t>
+          <t>14:14:27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PVS0320</t>
+          <t>PVS02375</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="G4" t="n">
-        <v>20.39</v>
+        <v>27.53</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>16.06</v>
+        <v>19.78</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>288 TX6PVS0320_2021_07_21_112104.ini</t>
+          <t>288 TX6PVS0237_2021_08_02_141427.ini</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12:39:18</t>
+          <t>10:16:11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PVS0322</t>
+          <t>PVS0311</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -696,10 +696,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="G5" t="n">
-        <v>40.41</v>
+        <v>15.03</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>61.7</v>
+        <v>6.42</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>288 TX6PVS0322_2021_07_21_123918.ini</t>
+          <t>288 TX6PVS0311_2021_07_21_101611.ini</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10:52:44</t>
+          <t>12:11:41</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PVS0353</t>
+          <t>PVS0313</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.21</v>
+        <v>0.82</v>
       </c>
       <c r="G6" t="n">
-        <v>17.13</v>
+        <v>10.74</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>11.28</v>
+        <v>8.09</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>288 TX6PVS0353_2021_07_21_105244.ini</t>
+          <t>288 TX6PVS0313_2021_07_21_121141.ini</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>07:32:41</t>
+          <t>11:21:04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PVS0354</t>
+          <t>PVS0320</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
@@ -811,7 +811,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>8.130000000000001</v>
+        <v>20.39</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4.83</v>
+        <v>16.06</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>288 TX6PVS0354_2021_07_21_073241.ini</t>
+          <t>288 TX6PVS0320_2021_07_21_112104.ini</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>08:32:38</t>
+          <t>12:39:18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PVS0356</t>
+          <t>PVS0322</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="G8" t="n">
-        <v>9.66</v>
+        <v>40.41</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -875,21 +875,21 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>170.51</v>
+        <v>61.7</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>IO</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>IO</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>288 TX6PVS0356_2021_07_21_083238.ini</t>
+          <t>288 TX6PVS0322_2021_07_21_123918.ini</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08:36:59</t>
+          <t>10:52:44</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PVS0356</t>
+          <t>PVS0353</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.42</v>
+        <v>1.21</v>
       </c>
       <c r="G9" t="n">
-        <v>17.52</v>
+        <v>17.13</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -931,21 +931,21 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>193.82</v>
+        <v>11.28</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>IO</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>IO</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>288 TX6PVS0356_2021_07_21_083659.ini</t>
+          <t>288 TX6PVS0353_2021_07_21_105244.ini</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>08:51:25</t>
+          <t>07:32:41</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PVS0356</t>
+          <t>PVS0354</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.51</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>12.31</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -987,21 +987,21 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>223.45</v>
+        <v>4.83</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>IO</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>IO</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>288 TX6PVS0356_2021_07_21_085125.ini</t>
+          <t>288 TX6PVS0354_2021_07_21_073241.ini</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09:00:20</t>
+          <t>08:32:38</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.29</v>
+        <v>0.71</v>
       </c>
       <c r="G11" t="n">
-        <v>13.58</v>
+        <v>9.66</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>243.22</v>
+        <v>170.51</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>288 TX6PVS0356_2021_07_21_090020.ini</t>
+          <t>288 TX6PVS0356_2021_07_21_083238.ini</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>09:08:14</t>
+          <t>08:36:59</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1088,10 +1088,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.14</v>
+        <v>0.42</v>
       </c>
       <c r="G12" t="n">
-        <v>11.83</v>
+        <v>17.52</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>263.73</v>
+        <v>193.82</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>288 TX6PVS0356_2021_07_21_090814.ini</t>
+          <t>288 TX6PVS0356_2021_07_21_083659.ini</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>09:27:35</t>
+          <t>08:51:25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-2.37</v>
+        <v>0.51</v>
       </c>
       <c r="G13" t="n">
-        <v>5.93</v>
+        <v>12.31</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1155,33 +1155,33 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4.83</v>
+        <v>223.45</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>IO</t>
+          <t>NIO</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>IO</t>
+          <t>NIO</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>288 TX6PVS0356_2021_07_21_092735.ini</t>
+          <t>288 TX6PVS0356_2021_07_21_085125.ini</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>07/19/2021</t>
+          <t>07/21/2021</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>09:19:39</t>
+          <t>09:00:20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PVS0357</t>
+          <t>PVS0356</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-1.02</v>
+        <v>0.29</v>
       </c>
       <c r="G14" t="n">
-        <v>12.67</v>
+        <v>13.58</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1211,21 +1211,21 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6.12</v>
+        <v>243.22</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>IO</t>
+          <t>NIO</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>IO</t>
+          <t>NIO</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>288 TX6PVS0357_2021_07_19_091939.ini</t>
+          <t>288 TX6PVS0356_2021_07_21_090020.ini</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14:26:34</t>
+          <t>09:08:14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PVS2007</t>
+          <t>PVS0356</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.87</v>
+        <v>0.14</v>
       </c>
       <c r="G15" t="n">
-        <v>7.12</v>
+        <v>11.83</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1267,21 +1267,21 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.74</v>
+        <v>263.73</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>IO</t>
+          <t>NIO</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>IO</t>
+          <t>NIO</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>288 TX6PVS2007_2021_07_21_142634.ini</t>
+          <t>288 TX6PVS0356_2021_07_21_090814.ini</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15:18:31</t>
+          <t>09:27:35</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PVS2008</t>
+          <t>PVS0356</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8</v>
+        <v>-2.37</v>
       </c>
       <c r="G16" t="n">
-        <v>12.32</v>
+        <v>5.93</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3.22</v>
+        <v>4.83</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1337,19 +1337,19 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>288 TX6PVS2008_2021_07_21_151831.ini</t>
+          <t>288 TX6PVS0356_2021_07_21_092735.ini</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>07/20/2021</t>
+          <t>07/19/2021</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10:03:04</t>
+          <t>09:19:39</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PVS2009</t>
+          <t>PVS0357</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
@@ -1368,10 +1368,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.96</v>
+        <v>-1.02</v>
       </c>
       <c r="G17" t="n">
-        <v>9.67</v>
+        <v>12.67</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>24.52</v>
+        <v>6.12</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1393,19 +1393,19 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>288 TX6PVS2009_2021_07_20_100304.ini</t>
+          <t>288 TX6PVS0357_2021_07_19_091939.ini</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>07/19/2021</t>
+          <t>08/09/2021</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16:03:34</t>
+          <t>07:44:59</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PVS2010</t>
+          <t>PVS0360</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="G18" t="n">
-        <v>28.62</v>
+        <v>10.75</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>23.75</v>
+        <v>6.45</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1449,19 +1449,19 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>288 TX6PVS2010_2021_07_19_160334.ini</t>
+          <t>288 TX6PVS0360_2021_08_09_074459.ini</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>07/19/2021</t>
+          <t>08/09/2021</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14:49:43</t>
+          <t>08:20:38</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PVS2017</t>
+          <t>PVS0361</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>15.23</v>
+        <v>6.47</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>15.67</v>
+        <v>-5.91</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1505,19 +1505,19 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>288 TX6PVS2017_2021_07_19_144943.ini</t>
+          <t>288 TX6PVS0361_2021_08_09_082038.ini</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>07/19/2021</t>
+          <t>08/09/2021</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15:25:38</t>
+          <t>06:57:19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PVS2018</t>
+          <t>PVS0362</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="G20" t="n">
-        <v>19.51</v>
+        <v>15.04</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4.62</v>
+        <v>5.01</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1561,19 +1561,19 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>288 TX6PVS2018_2021_07_19_152538.ini</t>
+          <t>288 TX6PVS0362_2021_08_09_065719.ini</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>07/21/2021</t>
+          <t>08/11/2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13:53:01</t>
+          <t>06:35:33</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PVS2019</t>
+          <t>PVS0363</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="G21" t="n">
-        <v>30.18</v>
+        <v>16.19</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>20.93</v>
+        <v>15.07</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1617,19 +1617,19 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>288 TX6PVS2019_2021_07_21_135301.ini</t>
+          <t>288 TX6PVS0363_2021_08_11_063533.ini</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>07/21/2021</t>
+          <t>08/11/2021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13:20:43</t>
+          <t>08:11:57</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PVS2020</t>
+          <t>PVS0364</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>24.01</v>
+        <v>17.48</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12.54</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1673,19 +1673,19 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>288 TX6PVS2020_2021_07_21_132043.ini</t>
+          <t>288 TX6PVS0364_2021_08_11_081157.ini</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>07/21/2021</t>
+          <t>08/09/2021</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15:48:14</t>
+          <t>08:51:25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PVS2021</t>
+          <t>PVS0365</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="G23" t="n">
-        <v>15.23</v>
+        <v>48.47</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>4.49</v>
+        <v>34.29</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1729,19 +1729,19 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>288 TX6PVS2021_2021_07_21_154814.ini</t>
+          <t>288 TX6PVS0365_2021_08_09_085125.ini</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>07/19/2021</t>
+          <t>08/11/2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13:56:27</t>
+          <t>06:06:36</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PVS2022</t>
+          <t>PVS0368</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="G24" t="n">
-        <v>10.13</v>
+        <v>16.68</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>7.51</v>
+        <v>11.14</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1785,19 +1785,19 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>288 TX6PVS2022_2021_07_19_135627.ini</t>
+          <t>288 TX6PVS0368_2021_08_11_060636.ini</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>07/19/2021</t>
+          <t>08/11/2021</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12:46:14</t>
+          <t>07:05:49</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PVS2023</t>
+          <t>PVS0369</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="G25" t="n">
-        <v>13.14</v>
+        <v>11.91</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8.02</v>
+        <v>4.68</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>288 TX6PVS2023_2021_07_19_124614.ini</t>
+          <t>288 TX6PVS0369_2021_08_11_070549.ini</t>
         </is>
       </c>
     </row>
@@ -1853,51 +1853,3299 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>14:26:34</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PVS2007</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2007_2021_07_21_142634.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>07/21/2021</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>15:18:31</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PVS2008</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G27" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2008_2021_07_21_151831.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>07/20/2021</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10:03:04</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PVS2009</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2009_2021_07_20_100304.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>07/19/2021</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16:03:34</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PVS2010</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2010_2021_07_19_160334.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>07/19/2021</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>14:49:43</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PVS2017</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2017_2021_07_19_144943.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07/19/2021</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>15:25:38</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PVS2018</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G31" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2018_2021_07_19_152538.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>07/21/2021</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>13:53:01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PVS2019</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2019_2021_07_21_135301.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>07/21/2021</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>13:20:43</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PVS2020</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G33" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2020_2021_07_21_132043.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>07/21/2021</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>15:48:14</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PVS2021</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G34" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2021_2021_07_21_154814.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>07/19/2021</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>13:56:27</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PVS2022</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2022_2021_07_19_135627.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>07/19/2021</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>12:46:14</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PVS2023</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2023_2021_07_19_124614.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>07/21/2021</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>14:53:24</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Highline</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>PVS2027</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E37" s="1" t="inlineStr">
         <is>
           <t>11K.915.910.D</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F37" t="n">
         <v>0.77</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G37" t="n">
         <v>17.35</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>IO</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>10.9</v>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>IO</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>IO</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>288 TX6PVS2027_2021_07_21_145324.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>08/17/2021</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>06:54:56</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PVS2033</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G38" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>500</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2033_2021_08_17_065456.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>08/17/2021</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>07:00:53</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PVS2033</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G39" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>500</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2033_2021_08_17_070053.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>08/17/2021</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>07:03:48</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PVS2033</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G40" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>288 TX6PVS2033_2021_08_17_070348.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>08/23/2021</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>13:21:50</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PVS3012</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G41" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3012_2021_08_23_132150.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>08/13/2021</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>13:01:55</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>PVS3014</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G42" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3014_2021_08_13_130155.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>06:52:02</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>PVS3016</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G43" t="n">
+        <v>17</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3016_2021_08_19_065202.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>08/20/2021</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>10:41:56</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>PVS3020</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3020_2021_08_20_104156.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>08/18/2021</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>08:30:15</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PVS3021</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G45" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3021_2021_08_18_083015.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>08/13/2021</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>12:25:27</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PVS3022</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G46" t="n">
+        <v>54.74</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>48.81</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3022_2021_08_13_122527.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>09:24:08</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>PVS3023</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G47" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3023_2021_08_19_092408.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>11:24:58</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>PVS3024</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G48" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3024_2021_08_19_112458.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>08/13/2021</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>13:39:16</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>PVS3025</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.E</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G49" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>63.02</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3025_2021_08_13_133916.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>08/13/2021</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>11:41:40</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>PVS3026</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G50" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3026_2021_08_13_114140.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>12:23:40</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PVS3027</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G51" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3027_2021_08_19_122340.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>08:51:46</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>PVS3028</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G52" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3028_2021_08_19_085146.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>13:25:56</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PVS3032</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G53" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3032_2021_08_19_132556.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>06:22:15</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>PVS3033</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G54" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3033_2021_08_19_062215.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>08/23/2021</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>14:24:38</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PVS3034</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G55" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3034_2021_08_23_142438.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>08/17/2021</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>13:03:31</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PVS3035</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G56" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>102.39</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3035_2021_08_17_130331.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>08/17/2021</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>13:07:19</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PVS3035</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G57" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>301.4</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3035_2021_08_17_130719.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>08/17/2021</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>13:11:58</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>PVS3035</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G58" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3035_2021_08_17_131158.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>08/18/2021</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>09:12:55</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>PVS3036</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G59" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3036_2021_08_18_091255.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>08/17/2021</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>12:02:11</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PVS3037</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G60" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3037_2021_08_17_120211.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>08/17/2021</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>13:55:53</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PVS3038</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="G61" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3038_2021_08_17_135553.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>08/17/2021</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>14:22:13</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PVS3039</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G62" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3039_2021_08_17_142213.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>08/18/2021</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>10:17:09</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PVS3040</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G63" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3040_2021_08_18_101709.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>14:18:04</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PVS3041</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G64" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3041_2021_08_19_141804.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>12:55:06</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PVS3042</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G65" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3042_2021_08_19_125506.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>14:43:28</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PVS3043</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G66" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3043_2021_08_19_144328.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>08/23/2021</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>08:26:38</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PVS3044</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G67" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3044_2021_08_23_082638.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>08/23/2021</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>10:21:56</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>PVS3045</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3045_2021_08_23_102156.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>08/23/2021</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>09:28:18</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PVS3046</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G69" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3046_2021_08_23_092818.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>08/23/2021</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>14:48:46</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PVS3047</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G70" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3047_2021_08_23_144846.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>08/23/2021</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>13:01:43</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PVS3048</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G71" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3048_2021_08_23_130143.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>11:57:51</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PVS3050</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G72" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3050_2021_08_19_115751.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>08:09:42</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PVS3051</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G73" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3051_2021_08_19_080942.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>08/20/2021</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>10:21:16</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PVS3052</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G74" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3052_2021_08_20_102116.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>08/18/2021</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>09:48:19</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>PVS3053</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G75" t="n">
+        <v>34.09</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>34.31</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3053_2021_08_18_094819.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>08/23/2021</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>14:05:28</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Midsize</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>PVS3054</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.911.D</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G76" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>288 TX6PVS3054_2021_08_23_140528.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>08/18/2021</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>15:33:47</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>TST0223</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G77" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>288 TX6TST0223_2021_08_18_153347.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>08/18/2021</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>15:38:52</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>TST0223</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G78" t="n">
+        <v>54.03</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>60.98</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>288 TX6TST0223_2021_08_18_153852.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>08/18/2021</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>15:44:22</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>TST0223</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G79" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>288 TX6TST0223_2021_08_18_154422.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>08/18/2021</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>15:48:55</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>TST0223</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G80" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>62.94</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>288 TX6TST0223_2021_08_18_154855.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>08/18/2021</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>15:56:10</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>TST0223</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G81" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>288 TX6TST0223_2021_08_18_155610.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>08/18/2021</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>16:00:35</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>TST0223</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G82" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>15.83</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>288 TX6TST0223_2021_08_18_160035.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>13:52:41</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>TST223</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G83" t="n">
+        <v>94.41</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>91.23</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>288 TX6TST223x_2021_08_19_135241.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>08/19/2021</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>13:58:00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>TST223</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G84" t="n">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>89.89</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>288 TX6TST223x_2021_08_19_135800.ini</t>
         </is>
       </c>
     </row>
